--- a/src/data/OCAK.xlsx
+++ b/src/data/OCAK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fener\Desktop\menu\menubb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6F3B8-8B34-4D8A-9751-3913756035AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A322C28-9440-401F-9AD5-2113EA4168C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="192">
   <si>
     <t>MENÜ</t>
   </si>
@@ -4310,8 +4310,8 @@
   </sheetPr>
   <dimension ref="A1:DT2198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="12" zoomScaleNormal="12" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="CW1" sqref="CW1:DT8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="10" zoomScaleNormal="10" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="48" customHeight="1"/>
@@ -7377,7 +7377,7 @@
       <c r="Z24" s="8"/>
       <c r="AB24" s="8"/>
     </row>
-    <row r="25" spans="1:28" ht="165" customHeight="1">
+    <row r="25" spans="1:28" ht="160.19999999999999" customHeight="1">
       <c r="B25" s="8"/>
       <c r="D25" s="8"/>
       <c r="F25" s="8"/>
@@ -7832,9 +7832,7 @@
       <c r="AB47" s="49"/>
     </row>
     <row r="48" spans="1:28" ht="102.75" customHeight="1" thickBot="1">
-      <c r="A48" s="279" t="s">
-        <v>22</v>
-      </c>
+      <c r="A48" s="279"/>
       <c r="B48" s="280"/>
       <c r="C48" s="280"/>
       <c r="D48" s="280"/>
@@ -7864,9 +7862,7 @@
       <c r="AB48" s="281"/>
     </row>
     <row r="49" spans="1:28" ht="105.75" customHeight="1">
-      <c r="A49" s="194" t="s">
-        <v>4</v>
-      </c>
+      <c r="A49" s="194"/>
       <c r="B49" s="195"/>
       <c r="C49" s="196"/>
       <c r="D49" s="197"/>
@@ -7876,9 +7872,7 @@
       <c r="H49" s="197"/>
       <c r="I49" s="198"/>
       <c r="J49" s="199"/>
-      <c r="K49" s="200" t="s">
-        <v>5</v>
-      </c>
+      <c r="K49" s="200"/>
       <c r="L49" s="199"/>
       <c r="M49" s="201"/>
       <c r="N49" s="199"/>
@@ -7888,9 +7882,7 @@
       <c r="R49" s="197"/>
       <c r="S49" s="196"/>
       <c r="T49" s="197"/>
-      <c r="U49" s="200" t="s">
-        <v>6</v>
-      </c>
+      <c r="U49" s="200"/>
       <c r="V49" s="195"/>
       <c r="W49" s="196"/>
       <c r="X49" s="197"/>
@@ -7900,9 +7892,7 @@
       <c r="AB49" s="202"/>
     </row>
     <row r="50" spans="1:28" ht="104.25" customHeight="1">
-      <c r="A50" s="203" t="s">
-        <v>7</v>
-      </c>
+      <c r="A50" s="203"/>
       <c r="B50" s="204"/>
       <c r="C50" s="205"/>
       <c r="D50" s="206"/>
@@ -7912,9 +7902,7 @@
       <c r="H50" s="206"/>
       <c r="I50" s="207"/>
       <c r="J50" s="208"/>
-      <c r="K50" s="209" t="s">
-        <v>8</v>
-      </c>
+      <c r="K50" s="209"/>
       <c r="L50" s="208"/>
       <c r="M50" s="210"/>
       <c r="N50" s="208"/>
@@ -7924,9 +7912,7 @@
       <c r="R50" s="206"/>
       <c r="S50" s="205"/>
       <c r="T50" s="206"/>
-      <c r="U50" s="209" t="s">
-        <v>9</v>
-      </c>
+      <c r="U50" s="209"/>
       <c r="V50" s="204"/>
       <c r="W50" s="205"/>
       <c r="X50" s="206"/>
@@ -7936,9 +7922,7 @@
       <c r="AB50" s="211"/>
     </row>
     <row r="51" spans="1:28" ht="107.25" customHeight="1">
-      <c r="A51" s="203" t="s">
-        <v>10</v>
-      </c>
+      <c r="A51" s="203"/>
       <c r="B51" s="204"/>
       <c r="C51" s="205"/>
       <c r="D51" s="206"/>
@@ -7948,9 +7932,7 @@
       <c r="H51" s="206"/>
       <c r="I51" s="207"/>
       <c r="J51" s="208"/>
-      <c r="K51" s="209" t="s">
-        <v>11</v>
-      </c>
+      <c r="K51" s="209"/>
       <c r="L51" s="208"/>
       <c r="M51" s="210"/>
       <c r="N51" s="208"/>
@@ -7960,9 +7942,7 @@
       <c r="R51" s="206"/>
       <c r="S51" s="205"/>
       <c r="T51" s="206"/>
-      <c r="U51" s="209" t="s">
-        <v>12</v>
-      </c>
+      <c r="U51" s="209"/>
       <c r="V51" s="204"/>
       <c r="W51" s="205"/>
       <c r="X51" s="206"/>
@@ -7972,9 +7952,7 @@
       <c r="AB51" s="211"/>
     </row>
     <row r="52" spans="1:28" ht="105" customHeight="1">
-      <c r="A52" s="203" t="s">
-        <v>13</v>
-      </c>
+      <c r="A52" s="203"/>
       <c r="B52" s="204"/>
       <c r="C52" s="205"/>
       <c r="D52" s="206"/>
@@ -7984,9 +7962,7 @@
       <c r="H52" s="206"/>
       <c r="I52" s="207"/>
       <c r="J52" s="208"/>
-      <c r="K52" s="209" t="s">
-        <v>14</v>
-      </c>
+      <c r="K52" s="209"/>
       <c r="L52" s="208"/>
       <c r="M52" s="210"/>
       <c r="N52" s="208"/>
@@ -7996,9 +7972,7 @@
       <c r="R52" s="206"/>
       <c r="S52" s="205"/>
       <c r="T52" s="206"/>
-      <c r="U52" s="209" t="s">
-        <v>15</v>
-      </c>
+      <c r="U52" s="209"/>
       <c r="V52" s="204"/>
       <c r="W52" s="205"/>
       <c r="X52" s="206"/>
@@ -8008,9 +7982,7 @@
       <c r="AB52" s="211"/>
     </row>
     <row r="53" spans="1:28" ht="105" customHeight="1">
-      <c r="A53" s="203" t="s">
-        <v>16</v>
-      </c>
+      <c r="A53" s="203"/>
       <c r="B53" s="204"/>
       <c r="C53" s="205"/>
       <c r="D53" s="206"/>
@@ -8020,9 +7992,7 @@
       <c r="H53" s="206"/>
       <c r="I53" s="207"/>
       <c r="J53" s="208"/>
-      <c r="K53" s="209" t="s">
-        <v>17</v>
-      </c>
+      <c r="K53" s="209"/>
       <c r="L53" s="208"/>
       <c r="M53" s="210"/>
       <c r="N53" s="208"/>
@@ -8102,9 +8072,7 @@
       <c r="AB55" s="226"/>
     </row>
     <row r="56" spans="1:28" ht="60" customHeight="1" thickBot="1">
-      <c r="A56" s="268" t="s">
-        <v>18</v>
-      </c>
+      <c r="A56" s="268"/>
       <c r="B56" s="269"/>
       <c r="C56" s="269"/>
       <c r="D56" s="269"/>
